--- a/UvA projects/Thesis/MSc/ascm/다시 2/divided/export rmspe.xlsx
+++ b/UvA projects/Thesis/MSc/ascm/다시 2/divided/export rmspe.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinhyun/Documents/GitHub/Python/UvA projects/Thesis/MSc/ascm/다시 2/divided/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597BD44-517B-B344-8FFE-86E54F361E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="2280" windowWidth="25240" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,6 +22,9 @@
     <t>year</t>
   </si>
   <si>
+    <t>Exports of goods and services (% of GDP)</t>
+  </si>
+  <si>
     <t>ASCM</t>
   </si>
   <si>
@@ -36,20 +33,16 @@
   <si>
     <t>European Union</t>
   </si>
-  <si>
-    <t>Exports of goods and services (% of GDP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -57,15 +50,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,31 +90,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,14 +388,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -464,13 +403,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -478,18 +417,18 @@
         <v>4519</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1965</v>
       </c>
-      <c r="D2" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17.451579377656291</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E2">
+        <v>17.45157937765629</v>
+      </c>
+      <c r="F2">
         <v>1.912514181979347</v>
       </c>
     </row>
@@ -498,19 +437,19 @@
         <v>4520</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1966</v>
       </c>
-      <c r="D3" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E3" s="2">
-        <v>17.958254897437531</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.4058386621981109</v>
+      <c r="D3">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E3">
+        <v>17.95825489743753</v>
+      </c>
+      <c r="F3">
+        <v>1.405838662198111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,19 +457,19 @@
         <v>4521</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1967</v>
       </c>
-      <c r="D4" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E4" s="2">
-        <v>16.843684211314748</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.5204093483208889</v>
+      <c r="D4">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E4">
+        <v>16.84368421131475</v>
+      </c>
+      <c r="F4">
+        <v>2.520409348320889</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,19 +477,19 @@
         <v>4522</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1968</v>
       </c>
-      <c r="D5" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E5" s="2">
-        <v>17.480765021333418</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.8833285383022189</v>
+      <c r="D5">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E5">
+        <v>17.48076502133342</v>
+      </c>
+      <c r="F5">
+        <v>1.883328538302219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,19 +497,19 @@
         <v>4523</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1969</v>
       </c>
-      <c r="D6" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E6" s="2">
-        <v>17.289508774782369</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.0745847848532679</v>
+      <c r="D6">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E6">
+        <v>17.28950877478237</v>
+      </c>
+      <c r="F6">
+        <v>2.074584784853268</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,18 +517,18 @@
         <v>4524</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1970</v>
       </c>
-      <c r="D7" s="2">
-        <v>19.364093559635641</v>
-      </c>
-      <c r="E7" s="2">
-        <v>18.076593535994991</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7">
+        <v>19.36409355963564</v>
+      </c>
+      <c r="E7">
+        <v>18.07659353599499</v>
+      </c>
+      <c r="F7">
         <v>1.287500023640654</v>
       </c>
     </row>
@@ -598,19 +537,19 @@
         <v>4525</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1971</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>19.37093047310039</v>
       </c>
-      <c r="E8" s="2">
-        <v>16.393055445548299</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.9778750275520882</v>
+      <c r="E8">
+        <v>16.3930554455483</v>
+      </c>
+      <c r="F8">
+        <v>2.977875027552088</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -618,19 +557,19 @@
         <v>4526</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>1972</v>
       </c>
-      <c r="D9" s="2">
-        <v>19.635160973502838</v>
-      </c>
-      <c r="E9" s="2">
-        <v>17.063945919375321</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.5712150541275212</v>
+      <c r="D9">
+        <v>19.63516097350284</v>
+      </c>
+      <c r="E9">
+        <v>17.06394591937532</v>
+      </c>
+      <c r="F9">
+        <v>2.571215054127521</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -638,19 +577,19 @@
         <v>4527</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1973</v>
       </c>
-      <c r="D10" s="2">
-        <v>20.591952124281669</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18.738889898921229</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.8530622253604361</v>
+      <c r="D10">
+        <v>20.59195212428167</v>
+      </c>
+      <c r="E10">
+        <v>18.73888989892123</v>
+      </c>
+      <c r="F10">
+        <v>1.853062225360436</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,19 +597,19 @@
         <v>4528</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1974</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>23.68532858622558</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>17.49064190251309</v>
       </c>
-      <c r="F11" s="2">
-        <v>6.1946866837124936</v>
+      <c r="F11">
+        <v>6.194686683712494</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -678,19 +617,19 @@
         <v>4529</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1975</v>
       </c>
-      <c r="D12" s="2">
-        <v>22.069583550069559</v>
-      </c>
-      <c r="E12" s="2">
-        <v>18.086179019890221</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3.9834045301793388</v>
+      <c r="D12">
+        <v>22.06958355006956</v>
+      </c>
+      <c r="E12">
+        <v>18.08617901989022</v>
+      </c>
+      <c r="F12">
+        <v>3.983404530179339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -698,19 +637,19 @@
         <v>4530</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>1976</v>
       </c>
-      <c r="D13" s="2">
-        <v>22.970526223537679</v>
-      </c>
-      <c r="E13" s="2">
-        <v>19.712970735507781</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3.2575554880298938</v>
+      <c r="D13">
+        <v>22.97052622353768</v>
+      </c>
+      <c r="E13">
+        <v>19.71297073550778</v>
+      </c>
+      <c r="F13">
+        <v>3.257555488029894</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -718,18 +657,18 @@
         <v>4531</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1977</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>23.27372639873672</v>
       </c>
-      <c r="E14" s="2">
-        <v>18.481233915151289</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14">
+        <v>18.48123391515129</v>
+      </c>
+      <c r="F14">
         <v>4.792492483585427</v>
       </c>
     </row>
@@ -738,19 +677,19 @@
         <v>4532</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1978</v>
       </c>
-      <c r="D15" s="2">
-        <v>23.082466645585281</v>
-      </c>
-      <c r="E15" s="2">
-        <v>19.441510641533679</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.6409560040516031</v>
+      <c r="D15">
+        <v>23.08246664558528</v>
+      </c>
+      <c r="E15">
+        <v>19.44151064153368</v>
+      </c>
+      <c r="F15">
+        <v>3.640956004051603</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -758,19 +697,19 @@
         <v>4533</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1979</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>23.90310377655921</v>
       </c>
-      <c r="E16" s="2">
-        <v>19.902669373214149</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4.0004344033450607</v>
+      <c r="E16">
+        <v>19.90266937321415</v>
+      </c>
+      <c r="F16">
+        <v>4.000434403345061</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -778,19 +717,19 @@
         <v>4534</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1980</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>24.25487420252896</v>
       </c>
-      <c r="E17" s="2">
-        <v>19.114450075549762</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5.1404241269791981</v>
+      <c r="E17">
+        <v>19.11445007554976</v>
+      </c>
+      <c r="F17">
+        <v>5.140424126979198</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -798,19 +737,19 @@
         <v>4535</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>1981</v>
       </c>
-      <c r="D18" s="2">
-        <v>25.840240440890629</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18">
+        <v>25.84024044089063</v>
+      </c>
+      <c r="E18">
         <v>20.03128737452225</v>
       </c>
-      <c r="F18" s="2">
-        <v>5.8089530663683817</v>
+      <c r="F18">
+        <v>5.808953066368382</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -818,19 +757,19 @@
         <v>4536</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>1982</v>
       </c>
-      <c r="D19" s="2">
-        <v>25.847605544859359</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20.860729853225809</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4.9868756916335526</v>
+      <c r="D19">
+        <v>25.84760554485936</v>
+      </c>
+      <c r="E19">
+        <v>20.86072985322581</v>
+      </c>
+      <c r="F19">
+        <v>4.986875691633553</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -838,19 +777,19 @@
         <v>4537</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1983</v>
       </c>
-      <c r="D20" s="2">
-        <v>26.102573216669828</v>
-      </c>
-      <c r="E20" s="2">
-        <v>22.087074819106999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4.0154983975628262</v>
+      <c r="D20">
+        <v>26.10257321666983</v>
+      </c>
+      <c r="E20">
+        <v>22.087074819107</v>
+      </c>
+      <c r="F20">
+        <v>4.015498397562826</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -858,18 +797,18 @@
         <v>4538</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1984</v>
       </c>
-      <c r="D21" s="2">
-        <v>27.709373359413021</v>
-      </c>
-      <c r="E21" s="2">
-        <v>24.786839367711231</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D21">
+        <v>27.70937335941302</v>
+      </c>
+      <c r="E21">
+        <v>24.78683936771123</v>
+      </c>
+      <c r="F21">
         <v>2.922533991701787</v>
       </c>
     </row>
@@ -878,19 +817,19 @@
         <v>4539</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1985</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>27.94225386920845</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>23.65193213655472</v>
       </c>
-      <c r="F22" s="2">
-        <v>4.2903217326537266</v>
+      <c r="F22">
+        <v>4.290321732653727</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -898,18 +837,18 @@
         <v>4540</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1986</v>
       </c>
-      <c r="D23" s="2">
-        <v>25.058035472514192</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23">
+        <v>25.05803547251419</v>
+      </c>
+      <c r="E23">
         <v>26.25424941247298</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>-1.196213939958785</v>
       </c>
     </row>
@@ -918,19 +857,19 @@
         <v>4541</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1987</v>
       </c>
-      <c r="D24" s="2">
-        <v>24.395741296558072</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24">
+        <v>24.39574129655807</v>
+      </c>
+      <c r="E24">
         <v>24.81054521794583</v>
       </c>
-      <c r="F24" s="2">
-        <v>-0.41480392138776168</v>
+      <c r="F24">
+        <v>-0.4148039213877617</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -938,18 +877,18 @@
         <v>4542</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1988</v>
       </c>
-      <c r="D25" s="2">
-        <v>24.805027248703819</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25">
+        <v>24.80502724870382</v>
+      </c>
+      <c r="E25">
         <v>27.0095337652475</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>-2.204506516543681</v>
       </c>
     </row>
@@ -958,19 +897,19 @@
         <v>4543</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1989</v>
       </c>
-      <c r="D26" s="2">
-        <v>25.861708484942991</v>
-      </c>
-      <c r="E26" s="2">
-        <v>24.324969604233111</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.5367388807098761</v>
+      <c r="D26">
+        <v>25.86170848494299</v>
+      </c>
+      <c r="E26">
+        <v>24.32496960423311</v>
+      </c>
+      <c r="F26">
+        <v>1.536738880709876</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -978,19 +917,19 @@
         <v>4544</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1990</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>25.45783029241084</v>
       </c>
-      <c r="E27" s="2">
-        <v>24.728188594189671</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.72964169822116531</v>
+      <c r="E27">
+        <v>24.72818859418967</v>
+      </c>
+      <c r="F27">
+        <v>0.7296416982211653</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -998,19 +937,19 @@
         <v>4545</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1991</v>
       </c>
-      <c r="D28" s="2">
-        <v>25.257003923288352</v>
-      </c>
-      <c r="E28" s="2">
-        <v>23.283872825366309</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.9731310979220389</v>
+      <c r="D28">
+        <v>25.25700392328835</v>
+      </c>
+      <c r="E28">
+        <v>23.28387282536631</v>
+      </c>
+      <c r="F28">
+        <v>1.973131097922039</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1018,19 +957,19 @@
         <v>4546</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1992</v>
       </c>
-      <c r="D29" s="2">
-        <v>24.962592965085431</v>
-      </c>
-      <c r="E29" s="2">
-        <v>23.592513898950639</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.3700790661347919</v>
+      <c r="D29">
+        <v>24.96259296508543</v>
+      </c>
+      <c r="E29">
+        <v>23.59251389895064</v>
+      </c>
+      <c r="F29">
+        <v>1.370079066134792</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1038,18 +977,18 @@
         <v>4547</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1993</v>
       </c>
-      <c r="D30" s="2">
-        <v>25.158325641044438</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30">
+        <v>25.15832564104444</v>
+      </c>
+      <c r="E30">
         <v>24.56005334525527</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>0.5982722957891724</v>
       </c>
     </row>
@@ -1058,19 +997,19 @@
         <v>4548</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1994</v>
       </c>
-      <c r="D31" s="2">
-        <v>26.590438983957451</v>
-      </c>
-      <c r="E31" s="2">
-        <v>25.623749693573881</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.96668929038357021</v>
+      <c r="D31">
+        <v>26.59043898395745</v>
+      </c>
+      <c r="E31">
+        <v>25.62374969357388</v>
+      </c>
+      <c r="F31">
+        <v>0.9666892903835702</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1078,19 +1017,19 @@
         <v>4549</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>1995</v>
       </c>
-      <c r="D32" s="2">
-        <v>28.284042140908781</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32">
+        <v>28.28404214090878</v>
+      </c>
+      <c r="E32">
         <v>27.21528959708024</v>
       </c>
-      <c r="F32" s="2">
-        <v>1.0687525438285379</v>
+      <c r="F32">
+        <v>1.068752543828538</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1098,18 +1037,18 @@
         <v>4550</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1996</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>28.62761086924294</v>
       </c>
-      <c r="E33" s="2">
-        <v>28.735228503470111</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33">
+        <v>28.73522850347011</v>
+      </c>
+      <c r="F33">
         <v>-0.1076176342271751</v>
       </c>
     </row>
@@ -1118,18 +1057,18 @@
         <v>4551</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1997</v>
       </c>
-      <c r="D34" s="2">
-        <v>30.923805528622111</v>
-      </c>
-      <c r="E34" s="2">
-        <v>29.847149718188319</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="D34">
+        <v>30.92380552862211</v>
+      </c>
+      <c r="E34">
+        <v>29.84714971818832</v>
+      </c>
+      <c r="F34">
         <v>1.076655810433792</v>
       </c>
     </row>
@@ -1138,18 +1077,18 @@
         <v>4552</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>31.54209411081855</v>
       </c>
-      <c r="E35" s="2">
-        <v>32.900245908343933</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35">
+        <v>32.90024590834393</v>
+      </c>
+      <c r="F35">
         <v>-1.358151797525377</v>
       </c>
     </row>
@@ -1158,19 +1097,19 @@
         <v>4553</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>31.91728629564879</v>
       </c>
-      <c r="E36" s="2">
-        <v>31.067569822209759</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.84971647343903101</v>
+      <c r="E36">
+        <v>31.06756982220976</v>
+      </c>
+      <c r="F36">
+        <v>0.849716473439031</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1178,19 +1117,19 @@
         <v>4554</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>2000</v>
       </c>
-      <c r="D37" s="2">
-        <v>35.690537057629307</v>
-      </c>
-      <c r="E37" s="2">
-        <v>33.531507601835457</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2.1590294557938492</v>
+      <c r="D37">
+        <v>35.69053705762931</v>
+      </c>
+      <c r="E37">
+        <v>33.53150760183546</v>
+      </c>
+      <c r="F37">
+        <v>2.159029455793849</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1198,19 +1137,19 @@
         <v>4555</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>2001</v>
       </c>
-      <c r="D38" s="2">
-        <v>35.699648467928569</v>
-      </c>
-      <c r="E38" s="2">
-        <v>34.864621139584948</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.83502732834362092</v>
+      <c r="D38">
+        <v>35.69964846792857</v>
+      </c>
+      <c r="E38">
+        <v>34.86462113958495</v>
+      </c>
+      <c r="F38">
+        <v>0.8350273283436209</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1218,19 +1157,19 @@
         <v>4556</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>2002</v>
       </c>
-      <c r="D39" s="2">
-        <v>35.100714101448617</v>
-      </c>
-      <c r="E39" s="2">
-        <v>33.349606525498409</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.7511075759502079</v>
+      <c r="D39">
+        <v>35.10071410144862</v>
+      </c>
+      <c r="E39">
+        <v>33.34960652549841</v>
+      </c>
+      <c r="F39">
+        <v>1.751107575950208</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1238,19 +1177,19 @@
         <v>4557</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>2003</v>
       </c>
-      <c r="D40" s="2">
-        <v>34.346139325179792</v>
-      </c>
-      <c r="E40" s="2">
-        <v>33.258985080274101</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1.0871542449056899</v>
+      <c r="D40">
+        <v>34.34613932517979</v>
+      </c>
+      <c r="E40">
+        <v>33.2589850802741</v>
+      </c>
+      <c r="F40">
+        <v>1.08715424490569</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1258,19 +1197,19 @@
         <v>4558</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>2004</v>
       </c>
-      <c r="D41" s="2">
-        <v>35.987161550372427</v>
-      </c>
-      <c r="E41" s="2">
-        <v>34.630956200203073</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.3562053501693541</v>
+      <c r="D41">
+        <v>35.98716155037243</v>
+      </c>
+      <c r="E41">
+        <v>34.63095620020307</v>
+      </c>
+      <c r="F41">
+        <v>1.356205350169354</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1278,18 +1217,18 @@
         <v>4559</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>2005</v>
       </c>
-      <c r="D42" s="2">
-        <v>37.444530427040732</v>
-      </c>
-      <c r="E42" s="2">
-        <v>35.536398340039987</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="D42">
+        <v>37.44453042704073</v>
+      </c>
+      <c r="E42">
+        <v>35.53639834003999</v>
+      </c>
+      <c r="F42">
         <v>1.908132087000745</v>
       </c>
     </row>
@@ -1298,19 +1237,19 @@
         <v>4560</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>2006</v>
       </c>
-      <c r="D43" s="2">
-        <v>39.629380664638703</v>
-      </c>
-      <c r="E43" s="2">
-        <v>39.944255423518477</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-0.31487475887977467</v>
+      <c r="D43">
+        <v>39.6293806646387</v>
+      </c>
+      <c r="E43">
+        <v>39.94425542351848</v>
+      </c>
+      <c r="F43">
+        <v>-0.3148747588797747</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1318,19 +1257,19 @@
         <v>4561</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>2007</v>
       </c>
-      <c r="D44" s="2">
-        <v>40.718783106962057</v>
-      </c>
-      <c r="E44" s="2">
-        <v>40.075921324463778</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.64286178249827231</v>
+      <c r="D44">
+        <v>40.71878310696206</v>
+      </c>
+      <c r="E44">
+        <v>40.07592132446378</v>
+      </c>
+      <c r="F44">
+        <v>0.6428617824982723</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1338,18 +1277,18 @@
         <v>4562</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>2008</v>
       </c>
-      <c r="D45" s="2">
-        <v>41.101448103453173</v>
-      </c>
-      <c r="E45" s="2">
-        <v>41.220315043837083</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45">
+        <v>41.10144810345317</v>
+      </c>
+      <c r="E45">
+        <v>41.22031504383708</v>
+      </c>
+      <c r="F45">
         <v>-0.1188669403839029</v>
       </c>
     </row>
@@ -1358,19 +1297,19 @@
         <v>4563</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>2009</v>
       </c>
-      <c r="D46" s="2">
-        <v>36.275066794114267</v>
-      </c>
-      <c r="E46" s="2">
-        <v>39.400451725443929</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-3.1253849313296631</v>
+      <c r="D46">
+        <v>36.27506679411427</v>
+      </c>
+      <c r="E46">
+        <v>39.40045172544393</v>
+      </c>
+      <c r="F46">
+        <v>-3.125384931329663</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1378,19 +1317,19 @@
         <v>4564</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>2010</v>
       </c>
-      <c r="D47" s="2">
-        <v>40.322782485608251</v>
-      </c>
-      <c r="E47" s="2">
-        <v>39.382343714165472</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.94043877144278554</v>
+      <c r="D47">
+        <v>40.32278248560825</v>
+      </c>
+      <c r="E47">
+        <v>39.38234371416547</v>
+      </c>
+      <c r="F47">
+        <v>0.9404387714427855</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1398,19 +1337,19 @@
         <v>4565</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
-      <c r="D48" s="2">
-        <v>43.214742731919713</v>
-      </c>
-      <c r="E48" s="2">
-        <v>41.616028411106257</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1.5987143208134571</v>
+      <c r="D48">
+        <v>43.21474273191971</v>
+      </c>
+      <c r="E48">
+        <v>41.61602841110626</v>
+      </c>
+      <c r="F48">
+        <v>1.598714320813457</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1418,19 +1357,19 @@
         <v>4566</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>2012</v>
       </c>
-      <c r="D49" s="2">
-        <v>44.803858286806502</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49">
+        <v>44.8038582868065</v>
+      </c>
+      <c r="E49">
         <v>41.80818807105404</v>
       </c>
-      <c r="F49" s="2">
-        <v>2.9956702157524622</v>
+      <c r="F49">
+        <v>2.995670215752462</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1438,19 +1377,19 @@
         <v>4567</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>2013</v>
       </c>
-      <c r="D50" s="2">
-        <v>44.964306103233177</v>
-      </c>
-      <c r="E50" s="2">
-        <v>40.073182602580658</v>
-      </c>
-      <c r="F50" s="2">
-        <v>4.8911235006525189</v>
+      <c r="D50">
+        <v>44.96430610323318</v>
+      </c>
+      <c r="E50">
+        <v>40.07318260258066</v>
+      </c>
+      <c r="F50">
+        <v>4.891123500652519</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1458,18 +1397,18 @@
         <v>4568</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2014</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>45.69023035717759</v>
       </c>
-      <c r="E51" s="2">
-        <v>40.700927726588922</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51">
+        <v>40.70092772658892</v>
+      </c>
+      <c r="F51">
         <v>4.989302630588675</v>
       </c>
     </row>
@@ -1478,19 +1417,19 @@
         <v>4569</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>2015</v>
       </c>
-      <c r="D52" s="2">
-        <v>47.109743619981877</v>
-      </c>
-      <c r="E52" s="2">
-        <v>38.222883996759371</v>
-      </c>
-      <c r="F52" s="2">
-        <v>8.8868596232225059</v>
+      <c r="D52">
+        <v>47.10974361998188</v>
+      </c>
+      <c r="E52">
+        <v>38.22288399675937</v>
+      </c>
+      <c r="F52">
+        <v>8.886859623222506</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1498,18 +1437,18 @@
         <v>4570</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>2016</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>46.68451248726516</v>
       </c>
-      <c r="E53" s="2">
-        <v>36.447237032612783</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="E53">
+        <v>36.44723703261278</v>
+      </c>
+      <c r="F53">
         <v>10.23727545465238</v>
       </c>
     </row>
@@ -1518,18 +1457,18 @@
         <v>4571</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2017</v>
       </c>
-      <c r="D54" s="2">
-        <v>48.354593950385478</v>
-      </c>
-      <c r="E54" s="2">
-        <v>37.452740000900512</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="D54">
+        <v>48.35459395038548</v>
+      </c>
+      <c r="E54">
+        <v>37.45274000090051</v>
+      </c>
+      <c r="F54">
         <v>10.90185394948497</v>
       </c>
     </row>
@@ -1538,19 +1477,19 @@
         <v>4572</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2018</v>
       </c>
-      <c r="D55" s="2">
-        <v>49.198137652955793</v>
-      </c>
-      <c r="E55" s="2">
-        <v>37.333483359051833</v>
-      </c>
-      <c r="F55" s="2">
-        <v>11.864654293903969</v>
+      <c r="D55">
+        <v>49.19813765295579</v>
+      </c>
+      <c r="E55">
+        <v>37.33348335905183</v>
+      </c>
+      <c r="F55">
+        <v>11.86465429390397</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1558,19 +1497,19 @@
         <v>4573</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2019</v>
       </c>
-      <c r="D56" s="2">
-        <v>49.344667645350249</v>
-      </c>
-      <c r="E56" s="2">
-        <v>39.556000211592973</v>
-      </c>
-      <c r="F56" s="2">
-        <v>9.7886674337572828</v>
+      <c r="D56">
+        <v>49.34466764535025</v>
+      </c>
+      <c r="E56">
+        <v>39.55600021159297</v>
+      </c>
+      <c r="F56">
+        <v>9.788667433757283</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1578,23 +1517,22 @@
         <v>4574</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>2020</v>
       </c>
-      <c r="D57" s="2">
-        <v>46.648574403733392</v>
-      </c>
-      <c r="E57" s="2">
-        <v>36.565533824905501</v>
-      </c>
-      <c r="F57" s="2">
-        <v>10.083040578827889</v>
+      <c r="D57">
+        <v>46.64857440373339</v>
+      </c>
+      <c r="E57">
+        <v>36.5655338249055</v>
+      </c>
+      <c r="F57">
+        <v>10.08304057882789</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>